--- a/画面設計書_3_1_ログイン画面.xlsx
+++ b/画面設計書_3_1_ログイン画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\研修\01_設計\ドキュメントフォーマット\設計書サンプル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9CA157-9D88-45B7-B00C-35AB389EE9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A2EE22-0859-469A-8281-E01B82888371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3048" yWindow="1992" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(1)レイアウト" sheetId="5" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>システム名</t>
   </si>
@@ -156,14 +156,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>文字列</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リンク</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>コンテンツ部</t>
   </si>
   <si>
@@ -188,22 +180,6 @@
   <si>
     <t>テキストボックス</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ボタン</t>
-    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>模擬試験Webアプリ</t>
@@ -239,32 +215,6 @@
   <si>
     <t>○</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>－</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ログイン情報保持</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>メッセージ欄</t>
@@ -2265,7 +2215,7 @@
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
       <c r="H1" s="24" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
@@ -2331,7 +2281,7 @@
       <c r="BN1" s="26"/>
       <c r="BO1" s="26"/>
       <c r="BP1" s="27" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="BQ1" s="27"/>
       <c r="BR1" s="27"/>
@@ -3303,7 +3253,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
@@ -4521,7 +4471,7 @@
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
       <c r="E5" s="33" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
@@ -4543,7 +4493,7 @@
       <c r="W5" s="33"/>
       <c r="X5" s="33"/>
       <c r="Y5" s="33" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Z5" s="33"/>
       <c r="AA5" s="33"/>
@@ -4565,7 +4515,7 @@
       <c r="AQ5" s="33"/>
       <c r="AR5" s="33"/>
       <c r="AS5" s="34" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AT5" s="34"/>
       <c r="AU5" s="34"/>
@@ -6850,8 +6800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BP2" sqref="BP2:BW2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9:CI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6873,7 +6823,7 @@
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
       <c r="H1" s="24" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
@@ -6939,7 +6889,7 @@
       <c r="BN1" s="26"/>
       <c r="BO1" s="26"/>
       <c r="BP1" s="27" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="BQ1" s="27"/>
       <c r="BR1" s="27"/>
@@ -7911,7 +7861,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
@@ -9129,7 +9079,7 @@
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
       <c r="E5" s="33" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
@@ -9151,7 +9101,7 @@
       <c r="W5" s="33"/>
       <c r="X5" s="33"/>
       <c r="Y5" s="33" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Z5" s="33"/>
       <c r="AA5" s="33"/>
@@ -9173,7 +9123,7 @@
       <c r="AQ5" s="33"/>
       <c r="AR5" s="33"/>
       <c r="AS5" s="34" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AT5" s="34"/>
       <c r="AU5" s="34"/>
@@ -9512,9 +9462,7 @@
       </c>
       <c r="C9" s="47"/>
       <c r="D9" s="48"/>
-      <c r="E9" s="59" t="s">
-        <v>58</v>
-      </c>
+      <c r="E9" s="59"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
       <c r="H9" s="60"/>
@@ -9534,27 +9482,19 @@
       <c r="V9" s="60"/>
       <c r="W9" s="60"/>
       <c r="X9" s="61"/>
-      <c r="Y9" s="62" t="s">
-        <v>49</v>
-      </c>
+      <c r="Y9" s="62"/>
       <c r="Z9" s="63"/>
       <c r="AA9" s="64"/>
-      <c r="AB9" s="59" t="s">
-        <v>24</v>
-      </c>
+      <c r="AB9" s="59"/>
       <c r="AC9" s="60"/>
       <c r="AD9" s="60"/>
       <c r="AE9" s="60"/>
       <c r="AF9" s="60"/>
       <c r="AG9" s="61"/>
-      <c r="AH9" s="62" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH9" s="62"/>
       <c r="AI9" s="63"/>
       <c r="AJ9" s="64"/>
-      <c r="AK9" s="65" t="s">
-        <v>25</v>
-      </c>
+      <c r="AK9" s="65"/>
       <c r="AL9" s="66"/>
       <c r="AM9" s="66"/>
       <c r="AN9" s="66"/>
@@ -9564,9 +9504,7 @@
       <c r="AR9" s="67"/>
       <c r="AS9" s="67"/>
       <c r="AT9" s="68"/>
-      <c r="AU9" s="57" t="s">
-        <v>23</v>
-      </c>
+      <c r="AU9" s="57"/>
       <c r="AV9" s="57"/>
       <c r="AW9" s="57"/>
       <c r="AX9" s="57"/>
@@ -9576,9 +9514,7 @@
       <c r="BB9" s="57"/>
       <c r="BC9" s="57"/>
       <c r="BD9" s="57"/>
-      <c r="BE9" s="57" t="s">
-        <v>23</v>
-      </c>
+      <c r="BE9" s="57"/>
       <c r="BF9" s="57"/>
       <c r="BG9" s="57"/>
       <c r="BH9" s="57"/>
@@ -9637,27 +9573,19 @@
       <c r="V10" s="60"/>
       <c r="W10" s="60"/>
       <c r="X10" s="61"/>
-      <c r="Y10" s="71" t="s">
-        <v>26</v>
-      </c>
+      <c r="Y10" s="71"/>
       <c r="Z10" s="72"/>
       <c r="AA10" s="73"/>
-      <c r="AB10" s="59" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB10" s="59"/>
       <c r="AC10" s="60"/>
       <c r="AD10" s="60"/>
       <c r="AE10" s="60"/>
       <c r="AF10" s="60"/>
       <c r="AG10" s="61"/>
-      <c r="AH10" s="71" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH10" s="71"/>
       <c r="AI10" s="72"/>
       <c r="AJ10" s="73"/>
-      <c r="AK10" s="59" t="s">
-        <v>28</v>
-      </c>
+      <c r="AK10" s="59"/>
       <c r="AL10" s="60"/>
       <c r="AM10" s="60"/>
       <c r="AN10" s="60"/>
@@ -9667,9 +9595,7 @@
       <c r="AR10" s="67"/>
       <c r="AS10" s="67"/>
       <c r="AT10" s="68"/>
-      <c r="AU10" s="69" t="s">
-        <v>23</v>
-      </c>
+      <c r="AU10" s="69"/>
       <c r="AV10" s="69"/>
       <c r="AW10" s="69"/>
       <c r="AX10" s="69"/>
@@ -9679,9 +9605,7 @@
       <c r="BB10" s="69"/>
       <c r="BC10" s="69"/>
       <c r="BD10" s="69"/>
-      <c r="BE10" s="69" t="s">
-        <v>23</v>
-      </c>
+      <c r="BE10" s="69"/>
       <c r="BF10" s="69"/>
       <c r="BG10" s="69"/>
       <c r="BH10" s="69"/>
@@ -9721,7 +9645,7 @@
       <c r="C11" s="47"/>
       <c r="D11" s="48"/>
       <c r="E11" s="49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
@@ -9814,7 +9738,7 @@
       <c r="C12" s="47"/>
       <c r="D12" s="48"/>
       <c r="E12" s="65" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F12" s="66"/>
       <c r="G12" s="66"/>
@@ -9841,7 +9765,7 @@
       <c r="Z12" s="63"/>
       <c r="AA12" s="64"/>
       <c r="AB12" s="65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC12" s="66"/>
       <c r="AD12" s="66"/>
@@ -9849,12 +9773,12 @@
       <c r="AF12" s="66"/>
       <c r="AG12" s="76"/>
       <c r="AH12" s="62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AI12" s="63"/>
       <c r="AJ12" s="64"/>
       <c r="AK12" s="65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL12" s="66"/>
       <c r="AM12" s="66"/>
@@ -9862,56 +9786,56 @@
       <c r="AO12" s="66"/>
       <c r="AP12" s="66"/>
       <c r="AQ12" s="66"/>
-      <c r="AR12" s="67"/>
-      <c r="AS12" s="67"/>
-      <c r="AT12" s="68"/>
-      <c r="AU12" s="57" t="s">
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="66"/>
+      <c r="AT12" s="76"/>
+      <c r="AU12" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="AV12" s="57"/>
-      <c r="AW12" s="57"/>
-      <c r="AX12" s="57"/>
-      <c r="AY12" s="57"/>
-      <c r="AZ12" s="57"/>
-      <c r="BA12" s="57"/>
-      <c r="BB12" s="57"/>
-      <c r="BC12" s="57"/>
-      <c r="BD12" s="57"/>
-      <c r="BE12" s="57" t="s">
+      <c r="AV12" s="66"/>
+      <c r="AW12" s="66"/>
+      <c r="AX12" s="66"/>
+      <c r="AY12" s="66"/>
+      <c r="AZ12" s="66"/>
+      <c r="BA12" s="66"/>
+      <c r="BB12" s="66"/>
+      <c r="BC12" s="66"/>
+      <c r="BD12" s="76"/>
+      <c r="BE12" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="BF12" s="57"/>
-      <c r="BG12" s="57"/>
-      <c r="BH12" s="57"/>
-      <c r="BI12" s="57"/>
-      <c r="BJ12" s="57"/>
-      <c r="BK12" s="57"/>
-      <c r="BL12" s="57"/>
-      <c r="BM12" s="57"/>
-      <c r="BN12" s="57"/>
-      <c r="BO12" s="57"/>
-      <c r="BP12" s="57"/>
-      <c r="BQ12" s="75" t="s">
-        <v>55</v>
+      <c r="BF12" s="66"/>
+      <c r="BG12" s="66"/>
+      <c r="BH12" s="66"/>
+      <c r="BI12" s="66"/>
+      <c r="BJ12" s="66"/>
+      <c r="BK12" s="66"/>
+      <c r="BL12" s="66"/>
+      <c r="BM12" s="66"/>
+      <c r="BN12" s="66"/>
+      <c r="BO12" s="66"/>
+      <c r="BP12" s="76"/>
+      <c r="BQ12" s="77" t="s">
+        <v>44</v>
       </c>
-      <c r="BR12" s="75"/>
-      <c r="BS12" s="75"/>
-      <c r="BT12" s="75"/>
-      <c r="BU12" s="75"/>
-      <c r="BV12" s="75"/>
-      <c r="BW12" s="75"/>
-      <c r="BX12" s="75"/>
-      <c r="BY12" s="75"/>
-      <c r="BZ12" s="75"/>
-      <c r="CA12" s="75"/>
-      <c r="CB12" s="75"/>
-      <c r="CC12" s="75"/>
-      <c r="CD12" s="75"/>
-      <c r="CE12" s="75"/>
-      <c r="CF12" s="75"/>
-      <c r="CG12" s="75"/>
-      <c r="CH12" s="75"/>
-      <c r="CI12" s="75"/>
+      <c r="BR12" s="78"/>
+      <c r="BS12" s="78"/>
+      <c r="BT12" s="78"/>
+      <c r="BU12" s="78"/>
+      <c r="BV12" s="78"/>
+      <c r="BW12" s="78"/>
+      <c r="BX12" s="78"/>
+      <c r="BY12" s="78"/>
+      <c r="BZ12" s="78"/>
+      <c r="CA12" s="78"/>
+      <c r="CB12" s="78"/>
+      <c r="CC12" s="78"/>
+      <c r="CD12" s="78"/>
+      <c r="CE12" s="78"/>
+      <c r="CF12" s="78"/>
+      <c r="CG12" s="78"/>
+      <c r="CH12" s="78"/>
+      <c r="CI12" s="79"/>
     </row>
     <row r="13" spans="1:1024" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="46">
@@ -9920,48 +9844,48 @@
       </c>
       <c r="C13" s="47"/>
       <c r="D13" s="48"/>
-      <c r="E13" s="65" t="s">
-        <v>46</v>
+      <c r="E13" s="59" t="s">
+        <v>47</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="76"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="61"/>
       <c r="Y13" s="62" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Z13" s="63"/>
       <c r="AA13" s="64"/>
-      <c r="AB13" s="65" t="s">
-        <v>34</v>
+      <c r="AB13" s="59" t="s">
+        <v>24</v>
       </c>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="76"/>
-      <c r="AH13" s="62">
-        <v>20</v>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="62" t="s">
+        <v>23</v>
       </c>
       <c r="AI13" s="63"/>
       <c r="AJ13" s="64"/>
       <c r="AK13" s="65" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AL13" s="66"/>
       <c r="AM13" s="66"/>
@@ -9972,9 +9896,7 @@
       <c r="AR13" s="67"/>
       <c r="AS13" s="67"/>
       <c r="AT13" s="68"/>
-      <c r="AU13" s="65" t="s">
-        <v>13</v>
-      </c>
+      <c r="AU13" s="65"/>
       <c r="AV13" s="66"/>
       <c r="AW13" s="66"/>
       <c r="AX13" s="66"/>
@@ -9984,41 +9906,37 @@
       <c r="BB13" s="66"/>
       <c r="BC13" s="66"/>
       <c r="BD13" s="76"/>
-      <c r="BE13" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="BF13" s="57"/>
-      <c r="BG13" s="57"/>
-      <c r="BH13" s="57"/>
-      <c r="BI13" s="57"/>
-      <c r="BJ13" s="57"/>
-      <c r="BK13" s="57"/>
-      <c r="BL13" s="57"/>
-      <c r="BM13" s="57"/>
-      <c r="BN13" s="57"/>
-      <c r="BO13" s="57"/>
-      <c r="BP13" s="57"/>
-      <c r="BQ13" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="BR13" s="75"/>
-      <c r="BS13" s="75"/>
-      <c r="BT13" s="75"/>
-      <c r="BU13" s="75"/>
-      <c r="BV13" s="75"/>
-      <c r="BW13" s="75"/>
-      <c r="BX13" s="75"/>
-      <c r="BY13" s="75"/>
-      <c r="BZ13" s="75"/>
-      <c r="CA13" s="75"/>
-      <c r="CB13" s="75"/>
-      <c r="CC13" s="75"/>
-      <c r="CD13" s="75"/>
-      <c r="CE13" s="75"/>
-      <c r="CF13" s="75"/>
-      <c r="CG13" s="75"/>
-      <c r="CH13" s="75"/>
-      <c r="CI13" s="75"/>
+      <c r="BE13" s="65"/>
+      <c r="BF13" s="66"/>
+      <c r="BG13" s="66"/>
+      <c r="BH13" s="66"/>
+      <c r="BI13" s="66"/>
+      <c r="BJ13" s="66"/>
+      <c r="BK13" s="66"/>
+      <c r="BL13" s="66"/>
+      <c r="BM13" s="66"/>
+      <c r="BN13" s="66"/>
+      <c r="BO13" s="66"/>
+      <c r="BP13" s="76"/>
+      <c r="BQ13" s="77"/>
+      <c r="BR13" s="78"/>
+      <c r="BS13" s="78"/>
+      <c r="BT13" s="78"/>
+      <c r="BU13" s="78"/>
+      <c r="BV13" s="78"/>
+      <c r="BW13" s="78"/>
+      <c r="BX13" s="78"/>
+      <c r="BY13" s="78"/>
+      <c r="BZ13" s="78"/>
+      <c r="CA13" s="78"/>
+      <c r="CB13" s="78"/>
+      <c r="CC13" s="78"/>
+      <c r="CD13" s="78"/>
+      <c r="CE13" s="78"/>
+      <c r="CF13" s="78"/>
+      <c r="CG13" s="78"/>
+      <c r="CH13" s="78"/>
+      <c r="CI13" s="79"/>
     </row>
     <row r="14" spans="1:1024" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="46">
@@ -10028,7 +9946,7 @@
       <c r="C14" s="47"/>
       <c r="D14" s="48"/>
       <c r="E14" s="65" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F14" s="66"/>
       <c r="G14" s="66"/>
@@ -10050,12 +9968,12 @@
       <c r="W14" s="66"/>
       <c r="X14" s="76"/>
       <c r="Y14" s="62" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="Z14" s="63"/>
       <c r="AA14" s="64"/>
       <c r="AB14" s="65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC14" s="66"/>
       <c r="AD14" s="66"/>
@@ -10068,7 +9986,7 @@
       <c r="AI14" s="63"/>
       <c r="AJ14" s="64"/>
       <c r="AK14" s="65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AL14" s="66"/>
       <c r="AM14" s="66"/>
@@ -10076,11 +9994,11 @@
       <c r="AO14" s="66"/>
       <c r="AP14" s="66"/>
       <c r="AQ14" s="66"/>
-      <c r="AR14" s="67"/>
-      <c r="AS14" s="67"/>
-      <c r="AT14" s="68"/>
+      <c r="AR14" s="66"/>
+      <c r="AS14" s="66"/>
+      <c r="AT14" s="76"/>
       <c r="AU14" s="65" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="AV14" s="66"/>
       <c r="AW14" s="66"/>
@@ -10091,41 +10009,41 @@
       <c r="BB14" s="66"/>
       <c r="BC14" s="66"/>
       <c r="BD14" s="76"/>
-      <c r="BE14" s="57" t="s">
-        <v>36</v>
+      <c r="BE14" s="65" t="s">
+        <v>26</v>
       </c>
-      <c r="BF14" s="57"/>
-      <c r="BG14" s="57"/>
-      <c r="BH14" s="57"/>
-      <c r="BI14" s="57"/>
-      <c r="BJ14" s="57"/>
-      <c r="BK14" s="57"/>
-      <c r="BL14" s="57"/>
-      <c r="BM14" s="57"/>
-      <c r="BN14" s="57"/>
-      <c r="BO14" s="57"/>
-      <c r="BP14" s="57"/>
-      <c r="BQ14" s="75" t="s">
-        <v>54</v>
+      <c r="BF14" s="66"/>
+      <c r="BG14" s="66"/>
+      <c r="BH14" s="66"/>
+      <c r="BI14" s="66"/>
+      <c r="BJ14" s="66"/>
+      <c r="BK14" s="66"/>
+      <c r="BL14" s="66"/>
+      <c r="BM14" s="66"/>
+      <c r="BN14" s="66"/>
+      <c r="BO14" s="66"/>
+      <c r="BP14" s="76"/>
+      <c r="BQ14" s="77" t="s">
+        <v>43</v>
       </c>
-      <c r="BR14" s="75"/>
-      <c r="BS14" s="75"/>
-      <c r="BT14" s="75"/>
-      <c r="BU14" s="75"/>
-      <c r="BV14" s="75"/>
-      <c r="BW14" s="75"/>
-      <c r="BX14" s="75"/>
-      <c r="BY14" s="75"/>
-      <c r="BZ14" s="75"/>
-      <c r="CA14" s="75"/>
-      <c r="CB14" s="75"/>
-      <c r="CC14" s="75"/>
-      <c r="CD14" s="75"/>
-      <c r="CE14" s="75"/>
-      <c r="CF14" s="75"/>
-      <c r="CG14" s="75"/>
-      <c r="CH14" s="75"/>
-      <c r="CI14" s="75"/>
+      <c r="BR14" s="78"/>
+      <c r="BS14" s="78"/>
+      <c r="BT14" s="78"/>
+      <c r="BU14" s="78"/>
+      <c r="BV14" s="78"/>
+      <c r="BW14" s="78"/>
+      <c r="BX14" s="78"/>
+      <c r="BY14" s="78"/>
+      <c r="BZ14" s="78"/>
+      <c r="CA14" s="78"/>
+      <c r="CB14" s="78"/>
+      <c r="CC14" s="78"/>
+      <c r="CD14" s="78"/>
+      <c r="CE14" s="78"/>
+      <c r="CF14" s="78"/>
+      <c r="CG14" s="78"/>
+      <c r="CH14" s="78"/>
+      <c r="CI14" s="79"/>
     </row>
     <row r="15" spans="1:1024" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="46">
@@ -10135,7 +10053,7 @@
       <c r="C15" s="47"/>
       <c r="D15" s="48"/>
       <c r="E15" s="65" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F15" s="66"/>
       <c r="G15" s="66"/>
@@ -10157,35 +10075,37 @@
       <c r="W15" s="66"/>
       <c r="X15" s="76"/>
       <c r="Y15" s="62" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Z15" s="63"/>
       <c r="AA15" s="64"/>
       <c r="AB15" s="65" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AC15" s="66"/>
       <c r="AD15" s="66"/>
       <c r="AE15" s="66"/>
       <c r="AF15" s="66"/>
       <c r="AG15" s="76"/>
-      <c r="AH15" s="62" t="s">
-        <v>50</v>
+      <c r="AH15" s="62">
+        <v>10</v>
       </c>
       <c r="AI15" s="63"/>
       <c r="AJ15" s="64"/>
-      <c r="AK15" s="65"/>
+      <c r="AK15" s="65" t="s">
+        <v>33</v>
+      </c>
       <c r="AL15" s="66"/>
       <c r="AM15" s="66"/>
       <c r="AN15" s="66"/>
       <c r="AO15" s="66"/>
       <c r="AP15" s="66"/>
       <c r="AQ15" s="66"/>
-      <c r="AR15" s="67"/>
-      <c r="AS15" s="67"/>
-      <c r="AT15" s="68"/>
+      <c r="AR15" s="66"/>
+      <c r="AS15" s="66"/>
+      <c r="AT15" s="76"/>
       <c r="AU15" s="65" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="AV15" s="66"/>
       <c r="AW15" s="66"/>
@@ -10196,39 +10116,41 @@
       <c r="BB15" s="66"/>
       <c r="BC15" s="66"/>
       <c r="BD15" s="76"/>
-      <c r="BE15" s="57" t="s">
-        <v>36</v>
+      <c r="BE15" s="65" t="s">
+        <v>26</v>
       </c>
-      <c r="BF15" s="57"/>
-      <c r="BG15" s="57"/>
-      <c r="BH15" s="57"/>
-      <c r="BI15" s="57"/>
-      <c r="BJ15" s="57"/>
-      <c r="BK15" s="57"/>
-      <c r="BL15" s="57"/>
-      <c r="BM15" s="57"/>
-      <c r="BN15" s="57"/>
-      <c r="BO15" s="57"/>
-      <c r="BP15" s="57"/>
-      <c r="BQ15" s="75"/>
-      <c r="BR15" s="75"/>
-      <c r="BS15" s="75"/>
-      <c r="BT15" s="75"/>
-      <c r="BU15" s="75"/>
-      <c r="BV15" s="75"/>
-      <c r="BW15" s="75"/>
-      <c r="BX15" s="75"/>
-      <c r="BY15" s="75"/>
-      <c r="BZ15" s="75"/>
-      <c r="CA15" s="75"/>
-      <c r="CB15" s="75"/>
-      <c r="CC15" s="75"/>
-      <c r="CD15" s="75"/>
-      <c r="CE15" s="75"/>
-      <c r="CF15" s="75"/>
-      <c r="CG15" s="75"/>
-      <c r="CH15" s="75"/>
-      <c r="CI15" s="75"/>
+      <c r="BF15" s="66"/>
+      <c r="BG15" s="66"/>
+      <c r="BH15" s="66"/>
+      <c r="BI15" s="66"/>
+      <c r="BJ15" s="66"/>
+      <c r="BK15" s="66"/>
+      <c r="BL15" s="66"/>
+      <c r="BM15" s="66"/>
+      <c r="BN15" s="66"/>
+      <c r="BO15" s="66"/>
+      <c r="BP15" s="76"/>
+      <c r="BQ15" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR15" s="78"/>
+      <c r="BS15" s="78"/>
+      <c r="BT15" s="78"/>
+      <c r="BU15" s="78"/>
+      <c r="BV15" s="78"/>
+      <c r="BW15" s="78"/>
+      <c r="BX15" s="78"/>
+      <c r="BY15" s="78"/>
+      <c r="BZ15" s="78"/>
+      <c r="CA15" s="78"/>
+      <c r="CB15" s="78"/>
+      <c r="CC15" s="78"/>
+      <c r="CD15" s="78"/>
+      <c r="CE15" s="78"/>
+      <c r="CF15" s="78"/>
+      <c r="CG15" s="78"/>
+      <c r="CH15" s="78"/>
+      <c r="CI15" s="79"/>
     </row>
     <row r="16" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="46">
@@ -10236,9 +10158,7 @@
       </c>
       <c r="C16" s="47"/>
       <c r="D16" s="48"/>
-      <c r="E16" s="65" t="s">
-        <v>51</v>
-      </c>
+      <c r="E16" s="65"/>
       <c r="F16" s="66"/>
       <c r="G16" s="66"/>
       <c r="H16" s="66"/>
@@ -10258,27 +10178,19 @@
       <c r="V16" s="66"/>
       <c r="W16" s="66"/>
       <c r="X16" s="76"/>
-      <c r="Y16" s="62" t="s">
-        <v>26</v>
-      </c>
+      <c r="Y16" s="62"/>
       <c r="Z16" s="63"/>
       <c r="AA16" s="64"/>
-      <c r="AB16" s="65" t="s">
-        <v>48</v>
-      </c>
+      <c r="AB16" s="65"/>
       <c r="AC16" s="66"/>
       <c r="AD16" s="66"/>
       <c r="AE16" s="66"/>
       <c r="AF16" s="66"/>
       <c r="AG16" s="76"/>
-      <c r="AH16" s="62" t="s">
-        <v>26</v>
-      </c>
+      <c r="AH16" s="62"/>
       <c r="AI16" s="63"/>
       <c r="AJ16" s="64"/>
-      <c r="AK16" s="65" t="s">
-        <v>39</v>
-      </c>
+      <c r="AK16" s="65"/>
       <c r="AL16" s="66"/>
       <c r="AM16" s="66"/>
       <c r="AN16" s="66"/>
@@ -10288,9 +10200,7 @@
       <c r="AR16" s="67"/>
       <c r="AS16" s="67"/>
       <c r="AT16" s="68"/>
-      <c r="AU16" s="65" t="s">
-        <v>13</v>
-      </c>
+      <c r="AU16" s="65"/>
       <c r="AV16" s="66"/>
       <c r="AW16" s="66"/>
       <c r="AX16" s="66"/>
@@ -10300,9 +10210,7 @@
       <c r="BB16" s="66"/>
       <c r="BC16" s="66"/>
       <c r="BD16" s="76"/>
-      <c r="BE16" s="57" t="s">
-        <v>26</v>
-      </c>
+      <c r="BE16" s="57"/>
       <c r="BF16" s="57"/>
       <c r="BG16" s="57"/>
       <c r="BH16" s="57"/>
